--- a/The dates of article.xlsx
+++ b/The dates of article.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RetenQ\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{655ED2D6-EDAB-4451-808E-4C6FF84C9F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6F0B32B-ABB9-4679-9552-7426FEB1DEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="99">
   <si>
     <t xml:space="preserve">2、User name: </t>
   </si>
@@ -347,6 +347,14 @@
   </si>
   <si>
     <t>Second time</t>
+  </si>
+  <si>
+    <t>21-23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21-23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -771,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2:AF34"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1230,7 +1238,7 @@
         <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>74</v>
@@ -1331,7 +1339,7 @@
         <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>75</v>
@@ -1432,7 +1440,7 @@
         <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>74</v>
@@ -1533,7 +1541,7 @@
         <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>74</v>
@@ -1937,7 +1945,7 @@
         <v>72</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>75</v>
@@ -2038,7 +2046,7 @@
         <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>77</v>
@@ -2240,7 +2248,7 @@
         <v>72</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>76</v>
@@ -2442,7 +2450,7 @@
         <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>77</v>
@@ -2543,7 +2551,7 @@
         <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>75</v>
@@ -4601,6 +4609,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -4614,15 +4629,8 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4631,7 +4639,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
